--- a/data/trans_orig/P14A25-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A25-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE36636-6B2F-48E2-A427-950F041C246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F75237E9-EE65-4521-A412-43331F3EFC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D086F49F-1EEB-4A61-9A70-01B642940778}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFBD0788-E3A3-4705-AAD3-D45F65669C83}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
   <si>
     <t>Población que recibe medicación o terapia por otros problemas mentales en 2012 (Tasa respuesta: 0,71%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>95,04%</t>
   </si>
   <si>
-    <t>74,21%</t>
+    <t>73,04%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,16 +84,16 @@
     <t>85,5%</t>
   </si>
   <si>
-    <t>55,76%</t>
+    <t>55,96%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,22 +105,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,79%</t>
+    <t>26,96%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>44,24%</t>
+    <t>44,04%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,7 +132,7 @@
     <t>88,31%</t>
   </si>
   <si>
-    <t>57,36%</t>
+    <t>45,01%</t>
   </si>
   <si>
     <t>58,02%</t>
@@ -141,16 +141,13 @@
     <t>77,03%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>50,32%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>42,64%</t>
+    <t>54,99%</t>
   </si>
   <si>
     <t>41,98%</t>
@@ -159,10 +156,7 @@
     <t>22,97%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>49,68%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -192,49 +186,49 @@
     <t>94,12%</t>
   </si>
   <si>
-    <t>81,72%</t>
+    <t>79,93%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>18,28%</t>
+    <t>20,07%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -249,13 +243,13 @@
     <t>93,01%</t>
   </si>
   <si>
-    <t>72,22%</t>
+    <t>72,77%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>77,93%</t>
+    <t>82,1%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -264,55 +258,55 @@
     <t>6,99%</t>
   </si>
   <si>
-    <t>27,78%</t>
+    <t>27,23%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>22,07%</t>
+    <t>17,9%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
   </si>
   <si>
     <t>81,04%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
   </si>
   <si>
     <t>65,14%</t>
@@ -336,55 +330,55 @@
     <t>84,06%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
 </sst>
 </file>
@@ -796,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48653ECD-7E1C-4E01-8473-B968B297D149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC063423-9AD4-4FC5-9F78-CD40D45793A6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1105,7 @@
         <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1126,13 +1120,13 @@
         <v>952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1141,7 +1135,7 @@
         <v>2030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
@@ -1156,13 +1150,13 @@
         <v>2982</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,7 +1212,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1233,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>28</v>
@@ -1248,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>28</v>
@@ -1263,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>28</v>
@@ -1284,10 +1278,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1299,10 +1293,10 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1314,10 +1308,10 @@
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,10 +1379,10 @@
         <v>29911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1400,13 +1394,13 @@
         <v>16369</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -1415,13 +1409,13 @@
         <v>46281</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,13 +1430,13 @@
         <v>1869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1451,13 +1445,13 @@
         <v>4029</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1466,13 +1460,13 @@
         <v>5897</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,7 +1522,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E4A523-DD41-4D69-B615-EADF961758B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFE4CF-E6F9-41DD-AC96-96CBBE443958}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1564,7 +1558,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1674,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>28</v>
@@ -1686,10 +1680,10 @@
         <v>16417</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1701,10 +1695,10 @@
         <v>27059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1725,10 +1719,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1737,13 +1731,13 @@
         <v>1233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1752,13 +1746,13 @@
         <v>1233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1820,13 @@
         <v>14067</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -1844,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1856,13 +1850,13 @@
         <v>26108</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1871,13 @@
         <v>4066</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1898,7 +1892,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1907,13 +1901,13 @@
         <v>6107</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,7 +1963,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1981,7 +1975,7 @@
         <v>1795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
@@ -1996,7 +1990,7 @@
         <v>1039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>21</v>
@@ -2011,7 +2005,7 @@
         <v>2835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>21</v>
@@ -2032,7 +2026,7 @@
         <v>961</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
@@ -2047,7 +2041,7 @@
         <v>985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
@@ -2062,7 +2056,7 @@
         <v>1945</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
@@ -2136,13 +2130,13 @@
         <v>26505</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2151,13 +2145,13 @@
         <v>29496</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2166,13 +2160,13 @@
         <v>56001</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2181,13 @@
         <v>5026</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2202,13 +2196,13 @@
         <v>4260</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2217,13 +2211,13 @@
         <v>9286</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,7 +2273,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A25-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A25-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F75237E9-EE65-4521-A412-43331F3EFC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE60000E-0AC3-485A-81A5-C0AC0F8CE1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFBD0788-E3A3-4705-AAD3-D45F65669C83}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{223F53FB-7CA9-40A7-94AE-29FEB0AD368B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="116">
   <si>
     <t>Población que recibe medicación o terapia por otros problemas mentales en 2012 (Tasa respuesta: 0,71%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>95,04%</t>
   </si>
   <si>
-    <t>73,04%</t>
+    <t>73,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,16 +84,16 @@
     <t>85,5%</t>
   </si>
   <si>
-    <t>55,96%</t>
+    <t>55,0%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,22 +105,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,96%</t>
+    <t>26,52%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>44,04%</t>
+    <t>45,0%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,7 +132,7 @@
     <t>88,31%</t>
   </si>
   <si>
-    <t>45,01%</t>
+    <t>44,43%</t>
   </si>
   <si>
     <t>58,02%</t>
@@ -141,13 +141,16 @@
     <t>77,03%</t>
   </si>
   <si>
-    <t>50,32%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>54,99%</t>
+    <t>55,57%</t>
   </si>
   <si>
     <t>41,98%</t>
@@ -156,7 +159,10 @@
     <t>22,97%</t>
   </si>
   <si>
-    <t>49,68%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -186,55 +192,55 @@
     <t>94,12%</t>
   </si>
   <si>
-    <t>79,93%</t>
+    <t>81,51%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>88,7%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otros problemas mentales en 2015 (Tasa respuesta: 0,91%)</t>
+    <t>Población que recibe medicación o terapia por otros problemas mentales en 2016 (Tasa respuesta: 0,91%)</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -243,13 +249,13 @@
     <t>93,01%</t>
   </si>
   <si>
-    <t>72,77%</t>
+    <t>72,43%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>82,1%</t>
+    <t>80,2%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -258,55 +264,55 @@
     <t>6,99%</t>
   </si>
   <si>
-    <t>27,23%</t>
+    <t>27,57%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>17,9%</t>
+    <t>19,8%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
   </si>
   <si>
     <t>81,04%</t>
   </si>
   <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
   </si>
   <si>
     <t>65,14%</t>
@@ -330,55 +336,55 @@
     <t>84,06%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC063423-9AD4-4FC5-9F78-CD40D45793A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3863221C-5F64-4F61-9F15-91DE26A6C19D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1105,7 +1111,7 @@
         <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1120,13 +1126,13 @@
         <v>952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1135,7 +1141,7 @@
         <v>2030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
@@ -1150,13 +1156,13 @@
         <v>2982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,7 +1218,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1227,7 +1233,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>28</v>
@@ -1242,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>28</v>
@@ -1257,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>28</v>
@@ -1278,10 +1284,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1293,10 +1299,10 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1308,10 +1314,10 @@
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,10 +1385,10 @@
         <v>29911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1394,13 +1400,13 @@
         <v>16369</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -1409,13 +1415,13 @@
         <v>46281</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,13 +1436,13 @@
         <v>1869</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1445,13 +1451,13 @@
         <v>4029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1460,13 +1466,13 @@
         <v>5897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,7 +1528,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDFE4CF-E6F9-41DD-AC96-96CBBE443958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71446B0E-5E88-43E0-971F-1CC4BDFED10E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1558,7 +1564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1668,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>28</v>
@@ -1680,10 +1686,10 @@
         <v>16417</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1695,10 +1701,10 @@
         <v>27059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1719,10 +1725,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1731,13 +1737,13 @@
         <v>1233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1746,13 +1752,13 @@
         <v>1233</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1826,13 @@
         <v>14067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -1838,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1850,13 +1856,13 @@
         <v>26108</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1877,13 @@
         <v>4066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1892,7 +1898,7 @@
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1901,13 +1907,13 @@
         <v>6107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,7 +1969,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1975,7 +1981,7 @@
         <v>1795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>21</v>
@@ -1990,7 +1996,7 @@
         <v>1039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>21</v>
@@ -2005,7 +2011,7 @@
         <v>2835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>21</v>
@@ -2026,7 +2032,7 @@
         <v>961</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
@@ -2041,7 +2047,7 @@
         <v>985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
@@ -2056,7 +2062,7 @@
         <v>1945</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
@@ -2130,13 +2136,13 @@
         <v>26505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -2145,13 +2151,13 @@
         <v>29496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2160,13 +2166,13 @@
         <v>56001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2187,13 @@
         <v>5026</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2196,13 +2202,13 @@
         <v>4260</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2211,13 +2217,13 @@
         <v>9286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,7 +2279,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
